--- a/P1V2 - sub-07DB.xlsx
+++ b/P1V2 - sub-07DB.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="V2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="50">
   <si>
     <t>MDDN</t>
   </si>
@@ -106,6 +107,69 @@
   </si>
   <si>
     <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Essai 1</t>
+  </si>
+  <si>
+    <t>Essai 7</t>
+  </si>
+  <si>
+    <t>Essai 6</t>
+  </si>
+  <si>
+    <t>Essai 8</t>
+  </si>
+  <si>
+    <t>Essai 4</t>
+  </si>
+  <si>
+    <t>Essai 5</t>
+  </si>
+  <si>
+    <t>Essai 9</t>
+  </si>
+  <si>
+    <t>Essai 2</t>
+  </si>
+  <si>
+    <t>Essai 3</t>
+  </si>
+  <si>
+    <t>Essai 10</t>
+  </si>
+  <si>
+    <t>Essai 11</t>
+  </si>
+  <si>
+    <t>Essai 12</t>
+  </si>
+  <si>
+    <t>Essai 13</t>
+  </si>
+  <si>
+    <t>Essai 14</t>
+  </si>
+  <si>
+    <t>Essai 15</t>
+  </si>
+  <si>
+    <t>Essai 16</t>
+  </si>
+  <si>
+    <t>Essai 17</t>
+  </si>
+  <si>
+    <t>Essai 18</t>
+  </si>
+  <si>
+    <t>Essai 19</t>
+  </si>
+  <si>
+    <t>Essai 20</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
   </si>
 </sst>
 </file>
@@ -640,7 +704,79 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -719,6 +855,40 @@
     <tableColumn id="5" name="MDUS"/>
     <tableColumn id="6" name="MDDF"/>
     <tableColumn id="7" name="MDUF"/>
+    <tableColumn id="8" name="VMDN" dataDxfId="41"/>
+    <tableColumn id="9" name="VMUN" dataDxfId="40"/>
+    <tableColumn id="10" name="VMDS" dataDxfId="39"/>
+    <tableColumn id="11" name="VMUS" dataDxfId="38"/>
+    <tableColumn id="12" name="VMDF" dataDxfId="37"/>
+    <tableColumn id="13" name="VMUF" dataDxfId="36"/>
+    <tableColumn id="14" name="TPVDN" dataDxfId="35"/>
+    <tableColumn id="15" name="TPVUN" dataDxfId="34"/>
+    <tableColumn id="16" name="TPVDS" dataDxfId="33"/>
+    <tableColumn id="17" name="TPVUS" dataDxfId="32"/>
+    <tableColumn id="18" name="TPVDF" dataDxfId="31"/>
+    <tableColumn id="19" name="TPVUF" dataDxfId="30"/>
+    <tableColumn id="20" name="AMPDN" dataDxfId="29"/>
+    <tableColumn id="21" name="AMPUN" dataDxfId="28"/>
+    <tableColumn id="22" name="AMPDS" dataDxfId="27"/>
+    <tableColumn id="23" name="AMPUS" dataDxfId="26"/>
+    <tableColumn id="24" name="AMPDF" dataDxfId="25"/>
+    <tableColumn id="25" name="AMPUF" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="A1:Y24" totalsRowShown="0">
+  <autoFilter ref="A1:Y24"/>
+  <tableColumns count="25">
+    <tableColumn id="1" name="Colonne1"/>
+    <tableColumn id="2" name="MDDN" dataDxfId="23"/>
+    <tableColumn id="3" name="MDUN" dataDxfId="22"/>
+    <tableColumn id="4" name="MDDS" dataDxfId="21"/>
+    <tableColumn id="5" name="MDUS" dataDxfId="20"/>
+    <tableColumn id="6" name="MDDF" dataDxfId="19"/>
+    <tableColumn id="7" name="MDUF" dataDxfId="18"/>
     <tableColumn id="8" name="VMDN" dataDxfId="17"/>
     <tableColumn id="9" name="VMUN" dataDxfId="16"/>
     <tableColumn id="10" name="VMDS" dataDxfId="15"/>
@@ -738,7 +908,7 @@
     <tableColumn id="24" name="AMPDF" dataDxfId="1"/>
     <tableColumn id="25" name="AMPUF" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1007,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -2889,4 +3059,1951 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1162.64248761206</v>
+      </c>
+      <c r="I2" s="1">
+        <v>813.98320834844003</v>
+      </c>
+      <c r="J2" s="1">
+        <v>559.77178469192904</v>
+      </c>
+      <c r="K2" s="1">
+        <v>799.92554170191795</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1601.98068786301</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1632.66194704028</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.54639175257731898</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.41353383458646598</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.258536585365853</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.42675159235668703</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.54794520547945202</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="T2" s="1">
+        <v>615.71998236689001</v>
+      </c>
+      <c r="U2" s="1">
+        <v>648.63881148620806</v>
+      </c>
+      <c r="V2" s="1">
+        <v>660.32616018326996</v>
+      </c>
+      <c r="W2" s="1">
+        <v>645.10279785256</v>
+      </c>
+      <c r="X2" s="1">
+        <v>644.41186991413304</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>681.14194810624701</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.83</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="H3" s="1">
+        <v>756.22217385782699</v>
+      </c>
+      <c r="I3" s="1">
+        <v>735.48524336749699</v>
+      </c>
+      <c r="J3" s="1">
+        <v>644.84896883920999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>713.46775809076905</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1737.80517257823</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1636.14888437491</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.28104575163398599</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.38157894736842102</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.73770491803278604</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.24215246636771301</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.48648648648648601</v>
+      </c>
+      <c r="T3" s="1">
+        <v>606.28979900540799</v>
+      </c>
+      <c r="U3" s="1">
+        <v>643.87724640665795</v>
+      </c>
+      <c r="V3" s="1">
+        <v>658.67844683223404</v>
+      </c>
+      <c r="W3" s="1">
+        <v>641.76649692230205</v>
+      </c>
+      <c r="X3" s="1">
+        <v>648.07631982857595</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>684.23278409477098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H4" s="1">
+        <v>688.22787580395402</v>
+      </c>
+      <c r="I4" s="1">
+        <v>949.74260738006205</v>
+      </c>
+      <c r="J4" s="1">
+        <v>748.61230973206102</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1007.5805521854101</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1777.5676939893599</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1864.75733627969</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.44230769230769201</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.53741496598639404</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.45132743362831801</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.54411764705882304</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="T4" s="1">
+        <v>634.37928169136899</v>
+      </c>
+      <c r="U4" s="1">
+        <v>662.76857778420003</v>
+      </c>
+      <c r="V4" s="1">
+        <v>668.778636195481</v>
+      </c>
+      <c r="W4" s="1">
+        <v>654.25069398665801</v>
+      </c>
+      <c r="X4" s="1">
+        <v>678.62262967260097</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>674.31759432076205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="H5" s="1">
+        <v>823.73908738863895</v>
+      </c>
+      <c r="I5" s="1">
+        <v>976.31855662568796</v>
+      </c>
+      <c r="J5" s="1">
+        <v>431.272515897262</v>
+      </c>
+      <c r="K5" s="1">
+        <v>692.27139865764605</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1806.6429757179999</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1852.66145186271</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.36551724137931002</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.44166666666666599</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.54504504504504503</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.29213483146067398</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.52173913043478204</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.515625</v>
+      </c>
+      <c r="T5" s="1">
+        <v>660.401996132166</v>
+      </c>
+      <c r="U5" s="1">
+        <v>668.46840225947005</v>
+      </c>
+      <c r="V5" s="1">
+        <v>622.43933495366696</v>
+      </c>
+      <c r="W5" s="1">
+        <v>633.75554363298397</v>
+      </c>
+      <c r="X5" s="1">
+        <v>699.00205411483205</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>671.11092461176599</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.28</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.36</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="H6" s="1">
+        <v>442.53845852722401</v>
+      </c>
+      <c r="I6" s="1">
+        <v>918.74121205166796</v>
+      </c>
+      <c r="J6" s="1">
+        <v>374.91930620947102</v>
+      </c>
+      <c r="K6" s="1">
+        <v>845.47470555226005</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1615.0291158487701</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1521.8505180433999</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.67206477732793501</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.5234375</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.35593220338983</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.52054794520547898</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="1">
+        <v>639.21140540823103</v>
+      </c>
+      <c r="U6" s="1">
+        <v>626.50317076604495</v>
+      </c>
+      <c r="V6" s="1">
+        <v>610.475686643465</v>
+      </c>
+      <c r="W6" s="1">
+        <v>640.71689512897501</v>
+      </c>
+      <c r="X6" s="1">
+        <v>658.11574751336695</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>664.678598009604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.97</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="H7" s="1">
+        <v>458.27450470110301</v>
+      </c>
+      <c r="I7" s="1">
+        <v>874.06542201188097</v>
+      </c>
+      <c r="J7" s="1">
+        <v>587.72933909685798</v>
+      </c>
+      <c r="K7" s="1">
+        <v>795.13439285560696</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1332.32008571956</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1588.16105348223</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.41702127659574401</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.44827586206896503</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.50253807106598902</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.44680851063829702</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.49315068493150599</v>
+      </c>
+      <c r="T7" s="1">
+        <v>638.780368254118</v>
+      </c>
+      <c r="U7" s="1">
+        <v>657.20970597348503</v>
+      </c>
+      <c r="V7" s="1">
+        <v>634.45047066518805</v>
+      </c>
+      <c r="W7" s="1">
+        <v>664.02064641602101</v>
+      </c>
+      <c r="X7" s="1">
+        <v>613.15024744121399</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>668.81193956592097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="H8" s="1">
+        <v>797.73898539233403</v>
+      </c>
+      <c r="I8" s="1">
+        <v>855.53341552702</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="1">
+        <v>852.81380736010897</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1484.21231497702</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1426.55922922267</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.37579617834394902</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.46853146853146799</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.28143712574850299</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.506493506493506</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.57317073170731703</v>
+      </c>
+      <c r="T8" s="1">
+        <v>662.86186404658497</v>
+      </c>
+      <c r="U8" s="1">
+        <v>641.46623261382604</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" s="1">
+        <v>673.49483354625102</v>
+      </c>
+      <c r="X8" s="1">
+        <v>643.02274177937898</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>638.16760994170295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="H9" s="1">
+        <v>510.65757115559302</v>
+      </c>
+      <c r="I9" s="1">
+        <v>932.23840318298699</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="1">
+        <v>939.77328207106405</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1426.19162207968</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1541.1490876753001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.56338028169013998</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.49206349206349198</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.47154471544715398</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.54878048780487798</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.531645569620253</v>
+      </c>
+      <c r="T9" s="1">
+        <v>629.12999010825195</v>
+      </c>
+      <c r="U9" s="1">
+        <v>661.18709053381394</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" s="1">
+        <v>647.95939199708096</v>
+      </c>
+      <c r="X9" s="1">
+        <v>652.255124631434</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>678.70064502081902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H10" s="1">
+        <v>453.61714002046898</v>
+      </c>
+      <c r="I10" s="1">
+        <v>606.60481631443804</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="1">
+        <v>486.524050390642</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1634.5138613680699</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1885.7467195346001</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.63255813953488305</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.29767441860465099</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.56944444444444398</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.52238805970149205</v>
+      </c>
+      <c r="T10" s="1">
+        <v>617.15107610062103</v>
+      </c>
+      <c r="U10" s="1">
+        <v>649.99218591984595</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W10" s="1">
+        <v>614.34728918738301</v>
+      </c>
+      <c r="X10" s="1">
+        <v>660.45825600961905</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>722.92958457221005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1362.96356679266</v>
+      </c>
+      <c r="I11" s="1">
+        <v>783.216031583833</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="1">
+        <v>563.05092364730103</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1495.0169956217901</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1699.23630568262</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.67010309278350499</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.31847133757961699</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.39285714285714202</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.55263157894736803</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T11" s="1">
+        <v>669.23140150674897</v>
+      </c>
+      <c r="U11" s="1">
+        <v>645.749579076342</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W11" s="1">
+        <v>602.099665994475</v>
+      </c>
+      <c r="X11" s="1">
+        <v>618.51460618369902</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>672.69467243196596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="H12" s="1">
+        <v>866.70242098932704</v>
+      </c>
+      <c r="I12" s="1">
+        <v>704.61637875795304</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1">
+        <v>820.88088357622803</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1789.30871949419</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1729.7838735010801</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.45205479452054698</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.29189189189189102</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.38167938931297701</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.53623188405797095</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.50724637681159401</v>
+      </c>
+      <c r="T12" s="1">
+        <v>692.221948072077</v>
+      </c>
+      <c r="U12" s="1">
+        <v>657.64078430029394</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W12" s="1">
+        <v>643.373197429058</v>
+      </c>
+      <c r="X12" s="1">
+        <v>689.97997906114801</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>679.54215009993902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H13" s="1">
+        <v>624.36178833986503</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1123.4607889696199</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1876.06218257212</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1986.4200661221</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.53672316384180796</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.47826086956521702</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>646.50667735538195</v>
+      </c>
+      <c r="U13" s="1">
+        <v>668.60686934578598</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X13" s="1">
+        <v>698.41168040636705</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>707.35139944026298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H14" s="1">
+        <v>578.92346459093403</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1094.3514297945201</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1704.6360808495999</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1798.24056763159</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.54945054945054905</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.49532710280373798</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.54929577464788704</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="T14" s="1">
+        <v>628.00170865689097</v>
+      </c>
+      <c r="U14" s="1">
+        <v>644.33343138198302</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X14" s="1">
+        <v>681.568240883454</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>731.00732395543503</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="H15" s="1">
+        <v>779.55351286188898</v>
+      </c>
+      <c r="I15" s="1">
+        <v>669.93020859539399</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1833.56539497324</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1588.2724306350101</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.49624060150375898</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.36774193548387002</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.51388888888888795</v>
+      </c>
+      <c r="T15" s="1">
+        <v>616.29230324230605</v>
+      </c>
+      <c r="U15" s="1">
+        <v>646.00168878918805</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X15" s="1">
+        <v>676.20665397497396</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>640.823962376081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H16" s="1">
+        <v>616.05494065131495</v>
+      </c>
+      <c r="I16" s="1">
+        <v>795.914970727835</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1636.6837346510899</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1723.5267772965899</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.45664739884393002</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.341614906832298</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.50746268656716398</v>
+      </c>
+      <c r="T16" s="1">
+        <v>634.52200015467304</v>
+      </c>
+      <c r="U16" s="1">
+        <v>675.07735884065005</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X16" s="1">
+        <v>639.69581945927996</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>655.32983075416598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.51</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>515.60430145416296</v>
+      </c>
+      <c r="I17" s="1">
+        <v>796.60209318510601</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1847.9567852729299</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1712.10534663782</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.51690821256038599</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.38410596026490001</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.52459016393442603</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.52857142857142803</v>
+      </c>
+      <c r="T17" s="1">
+        <v>607.40320620113903</v>
+      </c>
+      <c r="U17" s="1">
+        <v>642.10291416754205</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="1">
+        <v>645.86475067108904</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>666.08096325218401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1081.85343853001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>675.67846431845703</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1674.0796855149199</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1659.1036678422499</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.44247787610619399</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.34640522875816898</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.57746478873239404</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.52238805970149205</v>
+      </c>
+      <c r="T18" s="1">
+        <v>631.66462465793597</v>
+      </c>
+      <c r="U18" s="1">
+        <v>637.15319891843399</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X18" s="1">
+        <v>664.70075343389794</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>640.200660159515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="H19" s="1">
+        <v>784.37690041989697</v>
+      </c>
+      <c r="I19" s="1">
+        <v>890.31702437787305</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1942.58262584826</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1712.0327310590401</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.49193548387096703</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.53968253968253899</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0.54545454545454497</v>
+      </c>
+      <c r="T19" s="1">
+        <v>634.21571842967501</v>
+      </c>
+      <c r="U19" s="1">
+        <v>669.34196573554505</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X19" s="1">
+        <v>705.65803059664597</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>645.22821969786196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.64</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="H20" s="1">
+        <v>621.21363068335995</v>
+      </c>
+      <c r="I20" s="1">
+        <v>823.97842387633705</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1811.64774945407</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1935.7048693122799</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.57714285714285696</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.47560975609756001</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.55384615384615299</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0.51612903225806395</v>
+      </c>
+      <c r="T20" s="1">
+        <v>631.66537421595001</v>
+      </c>
+      <c r="U20" s="1">
+        <v>631.59062615278594</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X20" s="1">
+        <v>666.50983840736205</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>695.74645787947702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>956.19255493609205</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1328.43451846774</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1851.77882518091</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1940.23510512506</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.65040650406503997</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.473118279569892</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0.53968253968253899</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T21" s="1">
+        <v>648.72722650650201</v>
+      </c>
+      <c r="U21" s="1">
+        <v>695.011290623425</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X21" s="1">
+        <v>659.52220018464095</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>667.35083699150402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1">
+        <f>AVERAGEIF(B2:B21,"&lt;&gt;NA")</f>
+        <v>1.6489999999999998</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:Y22" si="0">AVERAGEIF(C2:C21,"&lt;&gt;NA")</f>
+        <v>1.425</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.9833333333333334</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6318181818181818</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70200000000000007</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.6954999999999999</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="0"/>
+        <v>744.07294023543579</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="0"/>
+        <v>867.46066087321742</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="0"/>
+        <v>557.85903741113191</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>774.26339055354117</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="0"/>
+        <v>1693.9791154787411</v>
+      </c>
+      <c r="M22" s="1">
+        <f t="shared" si="0"/>
+        <v>1721.7178984180616</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50721190711047659</v>
+      </c>
+      <c r="O22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41851346664260741</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48952863148098286</v>
+      </c>
+      <c r="Q22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.37606301889249677</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53939192228986488</v>
+      </c>
+      <c r="S22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51647295582758967</v>
+      </c>
+      <c r="T22" s="1">
+        <f t="shared" si="0"/>
+        <v>637.21889760564613</v>
+      </c>
+      <c r="U22" s="1">
+        <f t="shared" si="0"/>
+        <v>653.63605655377637</v>
+      </c>
+      <c r="V22" s="1">
+        <f t="shared" si="0"/>
+        <v>642.52478924555089</v>
+      </c>
+      <c r="W22" s="1">
+        <f t="shared" si="0"/>
+        <v>641.89885928124977</v>
+      </c>
+      <c r="X22" s="1">
+        <f t="shared" si="0"/>
+        <v>662.18737720838567</v>
+      </c>
+      <c r="Y22" s="1">
+        <f t="shared" si="0"/>
+        <v>674.27240526410969</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="1">
+        <f>STDEVA(B2:B22)</f>
+        <v>0.41653211160725695</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:Y23" si="1">STDEVA(C2:C22)</f>
+        <v>0.27185474062447307</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.97073130126686402</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.87982159831651474</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>5.9799665550904206E-2</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8777121399401652E-2</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>243.35857247797762</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>168.14198559692665</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>278.08622806991235</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>407.26047800506183</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="1"/>
+        <v>160.57823465122806</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" si="1"/>
+        <v>149.8706852507797</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.10321413639133453</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0275412772074247E-2</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25066443675604566</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="1"/>
+        <v>0.20188758482309194</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1405977244466599E-2</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="1"/>
+        <v>2.20045118629584E-2</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="1"/>
+        <v>21.04177821016189</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="1"/>
+        <v>16.042395777399516</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="1"/>
+        <v>310.59142626523504</v>
+      </c>
+      <c r="W23" s="1">
+        <f t="shared" si="1"/>
+        <v>325.81689315499381</v>
+      </c>
+      <c r="X23" s="1">
+        <f t="shared" si="1"/>
+        <v>24.787968124831167</v>
+      </c>
+      <c r="Y23" s="1">
+        <f t="shared" si="1"/>
+        <v>24.870145057100331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1">
+        <f>B23/B22</f>
+        <v>0.25259679296983445</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:Y24" si="2">C23/C22</f>
+        <v>0.19077525657857758</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48944435357993143</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53916643907975836</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="2"/>
+        <v>8.5184708761971789E-2</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4510598705106632E-2</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.32706279091533058</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.19383240437401369</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49848834458330715</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.52599733239860491</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="2"/>
+        <v>9.4793514975446733E-2</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>8.7047178511928683E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20349312574172929</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16791672998204007</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51205265767132857</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.53684508893655536</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="2"/>
+        <v>3.9685387118131889E-2</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="2"/>
+        <v>4.2605351576828744E-2</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="2"/>
+        <v>3.302127148021896E-2</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="2"/>
+        <v>2.4543315223430711E-2</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48339212971055917</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50758291348238127</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="2"/>
+        <v>3.743346517617259E-2</v>
+      </c>
+      <c r="Y24" s="1">
+        <f t="shared" si="2"/>
+        <v>3.6884417726332427E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/P1V2 - sub-07DB.xlsx
+++ b/P1V2 - sub-07DB.xlsx
@@ -3065,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,100 +4803,100 @@
         <v>26</v>
       </c>
       <c r="B23" s="1">
-        <f>STDEVA(B2:B22)</f>
-        <v>0.41653211160725695</v>
+        <f>_xlfn.STDEV.P(B2:B22)</f>
+        <v>0.40649371810292895</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ref="C23:Y23" si="1">STDEVA(C2:C22)</f>
-        <v>0.27185474062447307</v>
+        <f t="shared" ref="C23:Y23" si="1">_xlfn.STDEV.P(C2:C22)</f>
+        <v>0.26530306120682745</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>0.97073130126686402</v>
+        <v>0.26444911293731543</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>0.87982159831651474</v>
+        <v>0.38591489091547487</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" si="1"/>
-        <v>5.9799665550904206E-2</v>
+        <v>5.8358497973425301E-2</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="1"/>
-        <v>5.8777121399401652E-2</v>
+        <v>5.7360597061380865E-2</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>243.35857247797762</v>
+        <v>237.49364863390937</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="1"/>
-        <v>168.14198559692665</v>
+        <v>164.08977600975192</v>
       </c>
       <c r="J23" s="1">
         <f t="shared" si="1"/>
-        <v>278.08622806991235</v>
+        <v>116.09174037131027</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>407.26047800506183</v>
+        <v>139.69085110116299</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="1"/>
-        <v>160.57823465122806</v>
+        <v>156.70831091008014</v>
       </c>
       <c r="M23" s="1">
         <f t="shared" si="1"/>
-        <v>149.8706852507797</v>
+        <v>146.25881266908257</v>
       </c>
       <c r="N23" s="1">
         <f t="shared" si="1"/>
-        <v>0.10321413639133453</v>
+        <v>0.10072668323362323</v>
       </c>
       <c r="O23" s="1">
         <f t="shared" si="1"/>
-        <v>7.0275412772074247E-2</v>
+        <v>6.8581780450755539E-2</v>
       </c>
       <c r="P23" s="1">
         <f t="shared" si="1"/>
-        <v>0.25066443675604566</v>
+        <v>0.14058104876318919</v>
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="1"/>
-        <v>0.20188758482309194</v>
+        <v>8.5562659883378828E-2</v>
       </c>
       <c r="R23" s="1">
         <f t="shared" si="1"/>
-        <v>2.1405977244466599E-2</v>
+        <v>2.0890094754409599E-2</v>
       </c>
       <c r="S23" s="1">
         <f t="shared" si="1"/>
-        <v>2.20045118629584E-2</v>
+        <v>2.1474204732257966E-2</v>
       </c>
       <c r="T23" s="1">
         <f t="shared" si="1"/>
-        <v>21.04177821016189</v>
+        <v>20.534672890263845</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>16.042395777399516</v>
+        <v>15.655775209433431</v>
       </c>
       <c r="V23" s="1">
         <f t="shared" si="1"/>
-        <v>310.59142626523504</v>
+        <v>19.866910798065391</v>
       </c>
       <c r="W23" s="1">
         <f t="shared" si="1"/>
-        <v>325.81689315499381</v>
+        <v>18.484698127182746</v>
       </c>
       <c r="X23" s="1">
         <f t="shared" si="1"/>
-        <v>24.787968124831167</v>
+        <v>24.190579901268649</v>
       </c>
       <c r="Y23" s="1">
         <f t="shared" si="1"/>
-        <v>24.870145057100331</v>
+        <v>24.270776375464813</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
@@ -4905,99 +4905,99 @@
       </c>
       <c r="B24" s="1">
         <f>B23/B22</f>
-        <v>0.25259679296983445</v>
+        <v>0.24650922868582717</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:Y24" si="2">C23/C22</f>
-        <v>0.19077525657857758</v>
+        <v>0.18617758681180874</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>0.48944435357993143</v>
+        <v>0.1333356871952851</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="2"/>
-        <v>0.53916643907975836</v>
+        <v>0.23649380501783976</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" si="2"/>
-        <v>8.5184708761971789E-2</v>
+        <v>8.3131763494907834E-2</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="2"/>
-        <v>8.4510598705106632E-2</v>
+        <v>8.2473899441237772E-2</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>0.32706279091533058</v>
+        <v>0.31918060151302213</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="2"/>
-        <v>0.19383240437401369</v>
+        <v>0.18916105756838955</v>
       </c>
       <c r="J24" s="1">
         <f t="shared" si="2"/>
-        <v>0.49848834458330715</v>
+        <v>0.20810228496083819</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="2"/>
-        <v>0.52599733239860491</v>
+        <v>0.18041774001647468</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="2"/>
-        <v>9.4793514975446733E-2</v>
+        <v>9.2508998179586341E-2</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="2"/>
-        <v>8.7047178511928683E-2</v>
+        <v>8.4949347859755192E-2</v>
       </c>
       <c r="N24" s="1">
         <f t="shared" si="2"/>
-        <v>0.20349312574172929</v>
+        <v>0.19858895625587866</v>
       </c>
       <c r="O24" s="1">
         <f t="shared" si="2"/>
-        <v>0.16791672998204007</v>
+        <v>0.16386994903875207</v>
       </c>
       <c r="P24" s="1">
         <f t="shared" si="2"/>
-        <v>0.51205265767132857</v>
+        <v>0.2871763564429029</v>
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="2"/>
-        <v>0.53684508893655536</v>
+        <v>0.22752213215582942</v>
       </c>
       <c r="R24" s="1">
         <f t="shared" si="2"/>
-        <v>3.9685387118131889E-2</v>
+        <v>3.872897218357569E-2</v>
       </c>
       <c r="S24" s="1">
         <f t="shared" si="2"/>
-        <v>4.2605351576828744E-2</v>
+        <v>4.1578565711825076E-2</v>
       </c>
       <c r="T24" s="1">
         <f t="shared" si="2"/>
-        <v>3.302127148021896E-2</v>
+        <v>3.2225461246399002E-2</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="2"/>
-        <v>2.4543315223430711E-2</v>
+        <v>2.3951823116944878E-2</v>
       </c>
       <c r="V24" s="1">
         <f t="shared" si="2"/>
-        <v>0.48339212971055917</v>
+        <v>3.0920068969468101E-2</v>
       </c>
       <c r="W24" s="1">
         <f t="shared" si="2"/>
-        <v>0.50758291348238127</v>
+        <v>2.8796901349662042E-2</v>
       </c>
       <c r="X24" s="1">
         <f t="shared" si="2"/>
-        <v>3.743346517617259E-2</v>
+        <v>3.65313213961432E-2</v>
       </c>
       <c r="Y24" s="1">
         <f t="shared" si="2"/>
-        <v>3.6884417726332427E-2</v>
+        <v>3.5995505949791985E-2</v>
       </c>
     </row>
   </sheetData>
